--- a/pvserve/moduldb/modul_daten.xlsx
+++ b/pvserve/moduldb/modul_daten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Meier\Documents\Cems_Projekt\dark-2-bright-pipeline\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Meier\Documents\Cems_Projekt\dark-2-bright-pipeline\pvserve\moduldb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A512C51-AA0F-4E85-8119-D27D6E57201F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256C4368-720D-4A46-B7EF-44A2584C9166}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="0" windowWidth="21600" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>Modulhersteller</t>
   </si>
@@ -247,6 +247,42 @@
   </si>
   <si>
     <t>8.14</t>
+  </si>
+  <si>
+    <t>FS-387</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>60.5</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>IBC</t>
+  </si>
+  <si>
+    <t>IBC-180M</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>0.71</t>
   </si>
 </sst>
 </file>
@@ -611,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,6 +914,70 @@
         <v>38</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="3">
+        <v>994</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1318</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="3">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pvserve/moduldb/modul_daten.xlsx
+++ b/pvserve/moduldb/modul_daten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Meier\Documents\Cems_Projekt\dark-2-bright-pipeline\pvserve\moduldb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cem/Projects/Fachhochschule/pvServe/experiments/dark2bright_pipeline/pvserve/moduldb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256C4368-720D-4A46-B7EF-44A2584C9166}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D59670-C3ED-CD4D-813B-6EA7100929D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>Modulhersteller</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>48</t>
-  </si>
-  <si>
-    <t>078</t>
   </si>
   <si>
     <t>37.52</t>
@@ -650,15 +647,15 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -722,7 +719,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -736,7 +733,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>41</v>
@@ -754,7 +751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -786,7 +783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -818,7 +815,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -850,7 +847,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -882,7 +879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -893,39 +890,39 @@
         <v>59</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>62</v>
@@ -937,30 +934,30 @@
         <v>27</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="F10" s="3">
         <v>994</v>
@@ -969,10 +966,10 @@
         <v>1318</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="J10" s="3">
         <v>48</v>
